--- a/chat_nickname_list.xlsx
+++ b/chat_nickname_list.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD200379-AAA3-4103-982D-93A79CBCCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199EA64-1C69-4433-805F-BE4806423D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="히딩크_체험단" sheetId="1" r:id="rId1"/>
-    <sheet name="히딩크_무한" sheetId="10" r:id="rId2"/>
-    <sheet name="실배송_박항서" sheetId="5" r:id="rId3"/>
-    <sheet name="홍명보_가구매" sheetId="4" r:id="rId4"/>
-    <sheet name="이강인_침투" sheetId="7" r:id="rId5"/>
-    <sheet name="손흥민_실행사" sheetId="9" r:id="rId6"/>
-    <sheet name="김민재_부업" sheetId="8" r:id="rId7"/>
+    <sheet name="히딩크_체험단(임시)" sheetId="11" r:id="rId1"/>
+    <sheet name="히딩크_체험단" sheetId="1" r:id="rId2"/>
+    <sheet name="히딩크_무한" sheetId="10" r:id="rId3"/>
+    <sheet name="실배송_박항서" sheetId="5" r:id="rId4"/>
+    <sheet name="홍명보_가구매" sheetId="4" r:id="rId5"/>
+    <sheet name="이강인_침투" sheetId="7" r:id="rId6"/>
+    <sheet name="손흥민_실행사" sheetId="9" r:id="rId7"/>
+    <sheet name="김민재_부업" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +299,123 @@
   <si>
     <t>어떤내용이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히딩크_체험단39</t>
+  </si>
+  <si>
+    <t>히딩크_체험단40</t>
+  </si>
+  <si>
+    <t>히딩크_체험단41</t>
+  </si>
+  <si>
+    <t>히딩크_체험단42</t>
+  </si>
+  <si>
+    <t>히딩크_체험단43</t>
+  </si>
+  <si>
+    <t>히딩크_체험단44</t>
+  </si>
+  <si>
+    <t>히딩크_체험단45</t>
+  </si>
+  <si>
+    <t>히딩크_체험단46</t>
+  </si>
+  <si>
+    <t>히딩크_체험단47</t>
+  </si>
+  <si>
+    <t>히딩크_체험단48</t>
+  </si>
+  <si>
+    <t>히딩크_체험단49</t>
+  </si>
+  <si>
+    <t>히딩크_체험단50</t>
+  </si>
+  <si>
+    <t>히딩크_체험단51</t>
+  </si>
+  <si>
+    <t>히딩크_체험단52</t>
+  </si>
+  <si>
+    <t>히딩크_체험단53</t>
+  </si>
+  <si>
+    <t>히딩크_체험단54</t>
+  </si>
+  <si>
+    <t>히딩크_체험단55</t>
+  </si>
+  <si>
+    <t>히딩크_체험단56</t>
+  </si>
+  <si>
+    <t>히딩크_체험단57</t>
+  </si>
+  <si>
+    <t>히딩크_체험단58</t>
+  </si>
+  <si>
+    <t>히딩크_체험단59</t>
+  </si>
+  <si>
+    <t>히딩크_체험단60</t>
+  </si>
+  <si>
+    <t>히딩크_체험단61</t>
+  </si>
+  <si>
+    <t>히딩크_체험단62</t>
+  </si>
+  <si>
+    <t>히딩크_체험단63</t>
+  </si>
+  <si>
+    <t>히딩크_체험단64</t>
+  </si>
+  <si>
+    <t>히딩크_체험단65</t>
+  </si>
+  <si>
+    <t>히딩크_체험단66</t>
+  </si>
+  <si>
+    <t>히딩크_체험단67</t>
+  </si>
+  <si>
+    <t>히딩크_체험단68</t>
+  </si>
+  <si>
+    <t>히딩크_체험단69</t>
+  </si>
+  <si>
+    <t>히딩크_체험단70</t>
+  </si>
+  <si>
+    <t>히딩크_체험단10</t>
+  </si>
+  <si>
+    <t>히딩크_체험단28</t>
+  </si>
+  <si>
+    <t>히딩크_체험단32</t>
+  </si>
+  <si>
+    <t>히딩크_체험단35</t>
+  </si>
+  <si>
+    <t>히딩크_체험단36</t>
+  </si>
+  <si>
+    <t>히딩크_체험단37</t>
+  </si>
+  <si>
+    <t>히딩크_체험단38</t>
   </si>
 </sst>
 </file>
@@ -363,9 +481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +521,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +556,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +591,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,11 +766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE1A33-087D-45C6-A47D-51843811FC36}">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,6 +851,402 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="46.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -902,12 +1382,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4745A-77E3-4113-BFA8-F0503019181E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1218,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1297,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1402,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4620EB-352B-4F81-A216-BFE67F9716E1}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1490,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
